--- a/Domace Zadace.xlsx
+++ b/Domace Zadace.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Documents\GitHub\Unity_PISMO_Gen3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C276CD-8428-4053-936D-CC7AFF8B7105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE72B1F0-521E-4A4D-8742-5DBA93BE8FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="2550" windowWidth="21600" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="33">
   <si>
     <t>Ime i prezime</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Programiranje 2</t>
+  </si>
+  <si>
+    <t>Programiranje 4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Programiranje 3</t>
   </si>
 </sst>
 </file>
@@ -182,9 +191,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:H22" totalsRowShown="0">
-  <autoFilter ref="A1:H22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:J22" totalsRowShown="0">
+  <autoFilter ref="A1:J22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Br"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ime i prezime"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Level Design 0"/>
@@ -193,6 +202,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Level Design 3"/>
     <tableColumn id="7" xr3:uid="{C7E3B078-5478-4289-ABDC-27E6F60B1C8E}" name="Programiranje 1"/>
     <tableColumn id="8" xr3:uid="{48F21D9F-6785-4489-867F-05BA60DBAB45}" name="Programiranje 2"/>
+    <tableColumn id="9" xr3:uid="{08C1C706-95E4-4F8F-A199-678FCFDAD2CF}" name="Programiranje 3"/>
+    <tableColumn id="10" xr3:uid="{8EE7D8C4-A8A7-441B-9CBE-2B7D0443E022}" name="Programiranje 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B1:H22"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,10 +518,10 @@
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -535,8 +546,14 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -552,8 +569,14 @@
       <c r="H2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -572,8 +595,14 @@
       <c r="F3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -598,8 +627,14 @@
       <c r="H4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -618,8 +653,14 @@
       <c r="F5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -641,8 +682,14 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -664,8 +711,14 @@
       <c r="G7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -684,8 +737,14 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -707,8 +766,14 @@
       <c r="G9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -724,8 +789,14 @@
       <c r="F10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -744,8 +815,14 @@
       <c r="F11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -764,8 +841,14 @@
       <c r="F12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -784,8 +867,14 @@
       <c r="F13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -798,8 +887,14 @@
       <c r="E14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -824,8 +919,14 @@
       <c r="H15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -844,8 +945,14 @@
       <c r="G16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -867,8 +974,14 @@
       <c r="G17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -890,8 +1003,14 @@
       <c r="G18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -913,8 +1032,14 @@
       <c r="G19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -924,8 +1049,14 @@
       <c r="E20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -941,8 +1072,14 @@
       <c r="F21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -959,6 +1096,12 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Domace Zadace.xlsx
+++ b/Domace Zadace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Documents\GitHub\Unity_PISMO_Gen3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE72B1F0-521E-4A4D-8742-5DBA93BE8FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E9A49D-CFC3-45BE-BD65-DC431D91CEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="47">
   <si>
     <t>Ime i prezime</t>
   </si>
@@ -130,6 +130,48 @@
   </si>
   <si>
     <t>Programiranje 3</t>
+  </si>
+  <si>
+    <t>Programiranje 5</t>
+  </si>
+  <si>
+    <t>GDD 1</t>
+  </si>
+  <si>
+    <t>Skica Level Designa</t>
+  </si>
+  <si>
+    <t>Vježba izrade terena</t>
+  </si>
+  <si>
+    <t>Level design Screenshoot</t>
+  </si>
+  <si>
+    <t>Level design Wallpaper</t>
+  </si>
+  <si>
+    <t>FPS Controller</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t>Komentiranje asseta</t>
+  </si>
+  <si>
+    <t>Terrain/maze generator</t>
+  </si>
+  <si>
+    <t>Vježba</t>
+  </si>
+  <si>
+    <t>Vlastiti GDD</t>
+  </si>
+  <si>
+    <t>Level design &amp; Programiranje</t>
+  </si>
+  <si>
+    <t>Game i Level design</t>
   </si>
 </sst>
 </file>
@@ -151,12 +193,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,8 +225,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,9 +247,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:J22" totalsRowShown="0">
-  <autoFilter ref="A1:J22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:M24" totalsRowShown="0">
+  <autoFilter ref="A1:M24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Br"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ime i prezime"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Level Design 0"/>
@@ -204,6 +260,9 @@
     <tableColumn id="8" xr3:uid="{48F21D9F-6785-4489-867F-05BA60DBAB45}" name="Programiranje 2"/>
     <tableColumn id="9" xr3:uid="{08C1C706-95E4-4F8F-A199-678FCFDAD2CF}" name="Programiranje 3"/>
     <tableColumn id="10" xr3:uid="{8EE7D8C4-A8A7-441B-9CBE-2B7D0443E022}" name="Programiranje 4"/>
+    <tableColumn id="11" xr3:uid="{76FB9845-3CF8-4E98-8201-B0BD0AF3155D}" name="Programiranje 5"/>
+    <tableColumn id="12" xr3:uid="{D6060DF6-0824-4250-AED2-8CE0488D08CC}" name="GDD 1"/>
+    <tableColumn id="13" xr3:uid="{EE928175-E166-48E7-9E90-458EB373BF36}" name="Level design &amp; Programiranje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -506,22 +565,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -552,557 +619,862 @@
       <c r="J1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" t="s">
-        <v>26</v>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Domace Zadace.xlsx
+++ b/Domace Zadace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Documents\GitHub\Unity_PISMO_Gen3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E9A49D-CFC3-45BE-BD65-DC431D91CEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F4133-D454-483C-9983-A416A9F6E0E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="47">
   <si>
     <t>Ime i prezime</t>
   </si>
@@ -568,7 +568,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +663,9 @@
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
@@ -865,6 +868,9 @@
       <c r="K7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
@@ -903,6 +909,9 @@
       <c r="K8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="M8" s="1" t="s">
         <v>26</v>
       </c>
@@ -941,6 +950,9 @@
       <c r="K9" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="M9" s="1" t="s">
         <v>26</v>
       </c>
@@ -982,6 +994,9 @@
       <c r="L10" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1058,6 +1073,12 @@
       <c r="K12" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1096,6 +1117,9 @@
       <c r="L13" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="M13" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1131,6 +1155,12 @@
       <c r="K14" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1166,6 +1196,9 @@
       <c r="K15" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="M15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1245,6 +1278,9 @@
       <c r="K17" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="M17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1365,6 +1401,12 @@
       <c r="K20" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1403,6 +1445,9 @@
       <c r="L21" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="M21" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1440,6 +1485,9 @@
       </c>
       <c r="L22" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">

--- a/Domace Zadace.xlsx
+++ b/Domace Zadace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Documents\GitHub\Unity_PISMO_Gen3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F4133-D454-483C-9983-A416A9F6E0E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DFB30F-1752-462B-B388-C1025FE5D5EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17790" yWindow="7380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,8 +745,8 @@
       <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>31</v>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>26</v>
@@ -1237,8 +1237,8 @@
       <c r="K16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>31</v>
+      <c r="L16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>26</v>

--- a/Domace Zadace.xlsx
+++ b/Domace Zadace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Documents\GitHub\Unity_PISMO_Gen3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DFB30F-1752-462B-B388-C1025FE5D5EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C131569D-F39E-442F-95E6-552394DBF194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17790" yWindow="7380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="49">
   <si>
     <t>Ime i prezime</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Game i Level design</t>
+  </si>
+  <si>
+    <t>Gejmifikacija</t>
+  </si>
+  <si>
+    <t>Ideja gejmifikacija</t>
   </si>
 </sst>
 </file>
@@ -247,9 +253,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:M24" totalsRowShown="0">
-  <autoFilter ref="A1:M24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N24" totalsRowShown="0">
+  <autoFilter ref="A1:N24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Br"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ime i prezime"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Level Design 0"/>
@@ -263,6 +269,7 @@
     <tableColumn id="11" xr3:uid="{76FB9845-3CF8-4E98-8201-B0BD0AF3155D}" name="Programiranje 5"/>
     <tableColumn id="12" xr3:uid="{D6060DF6-0824-4250-AED2-8CE0488D08CC}" name="GDD 1"/>
     <tableColumn id="13" xr3:uid="{EE928175-E166-48E7-9E90-458EB373BF36}" name="Level design &amp; Programiranje"/>
+    <tableColumn id="14" xr3:uid="{9C974CAD-2A13-46F1-90F5-FB15193011EA}" name="Gejmifikacija"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -565,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,9 +593,10 @@
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -628,8 +636,11 @@
       <c r="M1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -669,8 +680,11 @@
       <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -710,8 +724,11 @@
       <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -751,8 +768,11 @@
       <c r="M4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -792,8 +812,11 @@
       <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -833,8 +856,11 @@
       <c r="M6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -874,8 +900,11 @@
       <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -915,8 +944,11 @@
       <c r="M8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -956,8 +988,11 @@
       <c r="M9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -997,8 +1032,11 @@
       <c r="M10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1038,8 +1076,11 @@
       <c r="M11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1079,8 +1120,11 @@
       <c r="M12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1120,8 +1164,11 @@
       <c r="M13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1161,8 +1208,11 @@
       <c r="M14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1202,8 +1252,11 @@
       <c r="M15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1243,8 +1296,11 @@
       <c r="M16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1284,8 +1340,11 @@
       <c r="M17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1325,8 +1384,11 @@
       <c r="M18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1366,8 +1428,11 @@
       <c r="M19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1407,8 +1472,11 @@
       <c r="M20" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1448,8 +1516,11 @@
       <c r="M21" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1489,8 +1560,11 @@
       <c r="M22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>35</v>
       </c>
@@ -1523,6 +1597,9 @@
       </c>
       <c r="M23" t="s">
         <v>46</v>
+      </c>
+      <c r="N23" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Domace Zadace.xlsx
+++ b/Domace Zadace.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Documents\GitHub\Unity_PISMO_Gen3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C131569D-F39E-442F-95E6-552394DBF194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13813FB-4FE2-4DFD-9046-11A062C20F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="51">
   <si>
     <t>Ime i prezime</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Ideja gejmifikacija</t>
+  </si>
+  <si>
+    <t>Programireanje 6</t>
+  </si>
+  <si>
+    <t>FPS jump, 360 lock camere</t>
   </si>
 </sst>
 </file>
@@ -253,9 +259,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N24" totalsRowShown="0">
-  <autoFilter ref="A1:N24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:O24" totalsRowShown="0">
+  <autoFilter ref="A1:O24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Br"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ime i prezime"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Level Design 0"/>
@@ -270,6 +276,7 @@
     <tableColumn id="12" xr3:uid="{D6060DF6-0824-4250-AED2-8CE0488D08CC}" name="GDD 1"/>
     <tableColumn id="13" xr3:uid="{EE928175-E166-48E7-9E90-458EB373BF36}" name="Level design &amp; Programiranje"/>
     <tableColumn id="14" xr3:uid="{9C974CAD-2A13-46F1-90F5-FB15193011EA}" name="Gejmifikacija"/>
+    <tableColumn id="15" xr3:uid="{D0B9E741-E727-4A3B-9D07-D5F29BF62F04}" name="Programireanje 6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,16 +579,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -593,10 +600,11 @@
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -639,8 +647,11 @@
       <c r="N1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -683,8 +694,11 @@
       <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -703,11 +717,11 @@
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
@@ -727,8 +741,11 @@
       <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -771,8 +788,11 @@
       <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -791,8 +811,8 @@
       <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>31</v>
@@ -815,8 +835,11 @@
       <c r="N5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -859,8 +882,11 @@
       <c r="N6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -903,8 +929,11 @@
       <c r="N7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -947,8 +976,11 @@
       <c r="N8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -991,8 +1023,11 @@
       <c r="N9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1035,8 +1070,11 @@
       <c r="N10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1055,8 +1093,8 @@
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>31</v>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>31</v>
@@ -1079,8 +1117,11 @@
       <c r="N11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1099,8 +1140,8 @@
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>31</v>
@@ -1123,8 +1164,11 @@
       <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1167,8 +1211,11 @@
       <c r="N13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1211,8 +1258,11 @@
       <c r="N14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1255,8 +1305,11 @@
       <c r="N15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1299,8 +1352,11 @@
       <c r="N16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1343,8 +1399,11 @@
       <c r="N17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1387,8 +1446,11 @@
       <c r="N18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1431,16 +1493,19 @@
       <c r="N19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
@@ -1475,8 +1540,11 @@
       <c r="N20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1519,8 +1587,11 @@
       <c r="N21" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1563,8 +1634,11 @@
       <c r="N22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>35</v>
       </c>
@@ -1600,6 +1674,9 @@
       </c>
       <c r="N23" t="s">
         <v>48</v>
+      </c>
+      <c r="O23" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Domace Zadace.xlsx
+++ b/Domace Zadace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Documents\GitHub\Unity_PISMO_Gen3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13813FB-4FE2-4DFD-9046-11A062C20F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D5CB8-DD89-444D-A419-0B5F7FC65D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="52">
   <si>
     <t>Ime i prezime</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>FPS jump, 360 lock camere</t>
+  </si>
+  <si>
+    <t>Programireanje 7</t>
   </si>
 </sst>
 </file>
@@ -259,9 +262,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:O24" totalsRowShown="0">
-  <autoFilter ref="A1:O24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:P24" totalsRowShown="0">
+  <autoFilter ref="A1:P24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Br"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ime i prezime"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Level Design 0"/>
@@ -277,6 +280,7 @@
     <tableColumn id="13" xr3:uid="{EE928175-E166-48E7-9E90-458EB373BF36}" name="Level design &amp; Programiranje"/>
     <tableColumn id="14" xr3:uid="{9C974CAD-2A13-46F1-90F5-FB15193011EA}" name="Gejmifikacija"/>
     <tableColumn id="15" xr3:uid="{D0B9E741-E727-4A3B-9D07-D5F29BF62F04}" name="Programireanje 6"/>
+    <tableColumn id="16" xr3:uid="{1361BFCD-DA16-4144-964B-F8EE9620DE0A}" name="Programireanje 7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -579,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,9 +606,10 @@
     <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -650,8 +655,11 @@
       <c r="O1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -697,8 +705,11 @@
       <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -744,8 +755,11 @@
       <c r="O3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -791,8 +805,11 @@
       <c r="O4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -838,8 +855,11 @@
       <c r="O5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -885,8 +905,11 @@
       <c r="O6" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -932,8 +955,11 @@
       <c r="O7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -979,8 +1005,11 @@
       <c r="O8" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1026,8 +1055,11 @@
       <c r="O9" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1073,8 +1105,11 @@
       <c r="O10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1120,8 +1155,11 @@
       <c r="O11" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1167,8 +1205,11 @@
       <c r="O12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1214,8 +1255,11 @@
       <c r="O13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1261,8 +1305,11 @@
       <c r="O14" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1308,8 +1355,11 @@
       <c r="O15" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1355,8 +1405,11 @@
       <c r="O16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1402,8 +1455,11 @@
       <c r="O17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1449,8 +1505,11 @@
       <c r="O18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1496,8 +1555,11 @@
       <c r="O19" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1543,8 +1605,11 @@
       <c r="O20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1590,8 +1655,11 @@
       <c r="O21" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1637,8 +1705,11 @@
       <c r="O22" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>35</v>
       </c>
